--- a/data/trans_orig/P1431-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1431-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>4261</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1025</v>
+        <v>1037</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14114</v>
+        <v>13810</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009747001884304196</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002344855005698819</v>
+        <v>0.002372148990831054</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03228292878463747</v>
+        <v>0.03158670744448339</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -763,19 +763,19 @@
         <v>4759</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1063</v>
+        <v>1688</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11385</v>
+        <v>12015</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01513362329369902</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003379826196394698</v>
+        <v>0.005368832316747079</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03620454190670633</v>
+        <v>0.0382106083699603</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -784,19 +784,19 @@
         <v>9020</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3720</v>
+        <v>3683</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17773</v>
+        <v>17890</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01200046046260795</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004948916648729958</v>
+        <v>0.004900018951476846</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02364524026596166</v>
+        <v>0.02380064555923484</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>432950</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>423097</v>
+        <v>423401</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>436186</v>
+        <v>436174</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9902529981156958</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9677170712153625</v>
+        <v>0.9684132925555167</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9976551449943012</v>
+        <v>0.997627851009169</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>279</v>
@@ -834,19 +834,19 @@
         <v>309695</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>303069</v>
+        <v>302439</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>313391</v>
+        <v>312766</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9848663767063009</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9637954580932941</v>
+        <v>0.9617893916300405</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9966201738036053</v>
+        <v>0.9946311676832531</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>680</v>
@@ -855,19 +855,19 @@
         <v>742645</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>733892</v>
+        <v>733775</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>747945</v>
+        <v>747982</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9879995395373921</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9763547597340383</v>
+        <v>0.9761993544407651</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.99505108335127</v>
+        <v>0.9950999810485232</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>3037</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>938</v>
+        <v>956</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8202</v>
+        <v>10224</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007251995831159833</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002239703634450703</v>
+        <v>0.002282924148223625</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01958482161416773</v>
+        <v>0.02441245743717966</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5418</v>
+        <v>4402</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003168494416606688</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01602983312457893</v>
+        <v>0.01302413536287545</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -1001,19 +1001,19 @@
         <v>4108</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1069</v>
+        <v>1081</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10082</v>
+        <v>10625</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005428192837087317</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001412714040100804</v>
+        <v>0.001428849529478858</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01332206316449163</v>
+        <v>0.01403867949952061</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>415760</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>410595</v>
+        <v>408573</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>417859</v>
+        <v>417841</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9927480041688401</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9804151783858317</v>
+        <v>0.9755875425628202</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9977602963655493</v>
+        <v>0.9977170758517764</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>304</v>
@@ -1051,7 +1051,7 @@
         <v>336940</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>332593</v>
+        <v>333609</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>338011</v>
@@ -1060,7 +1060,7 @@
         <v>0.9968315055833933</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9839701668754209</v>
+        <v>0.9869758646371246</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1072,19 +1072,19 @@
         <v>752700</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>746726</v>
+        <v>746183</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>755739</v>
+        <v>755727</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9945718071629127</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9866779368355083</v>
+        <v>0.9859613205004792</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9985872859598992</v>
+        <v>0.9985711504705211</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>7200</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3115</v>
+        <v>3109</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14383</v>
+        <v>14467</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01143861138233293</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00494924117317321</v>
+        <v>0.004939439993777564</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02285190739747162</v>
+        <v>0.02298447200473608</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1200,16 +1200,16 @@
         <v>946</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8305</v>
+        <v>8361</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01179073225625116</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003638248970234828</v>
+        <v>0.003636527072355009</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03192522297154342</v>
+        <v>0.03214059712559844</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -1218,19 +1218,19 @@
         <v>10267</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5219</v>
+        <v>5060</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17821</v>
+        <v>18205</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01154158209149285</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005866754972109167</v>
+        <v>0.005688407795163417</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02003401671560921</v>
+        <v>0.02046515940646828</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>622215</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>615032</v>
+        <v>614948</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>626300</v>
+        <v>626306</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9885613886176671</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9771480926025284</v>
+        <v>0.9770155279952639</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9950507588268268</v>
+        <v>0.9950605600062224</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>241</v>
@@ -1268,7 +1268,7 @@
         <v>257062</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>251824</v>
+        <v>251768</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>259183</v>
@@ -1277,10 +1277,10 @@
         <v>0.9882092677437488</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9680747770284566</v>
+        <v>0.9678594028744018</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9963617510297651</v>
+        <v>0.996363472927645</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>825</v>
@@ -1289,19 +1289,19 @@
         <v>879277</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>871723</v>
+        <v>871339</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>884325</v>
+        <v>884484</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9884584179085072</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9799659832843908</v>
+        <v>0.9795348405935318</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9941332450278908</v>
+        <v>0.9943115922048366</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>16996</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9911</v>
+        <v>10321</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26394</v>
+        <v>26760</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01466460991731791</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008551267777819392</v>
+        <v>0.008905380914734983</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02277327566034306</v>
+        <v>0.02308900760769561</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1414,19 +1414,19 @@
         <v>11270</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6184</v>
+        <v>5971</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19591</v>
+        <v>21263</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01473726980396435</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008086835210514369</v>
+        <v>0.007807434231828893</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02561872188334735</v>
+        <v>0.02780438379321602</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -1435,19 +1435,19 @@
         <v>28266</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18595</v>
+        <v>19457</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>41755</v>
+        <v>40358</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01469349369321857</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009666074755130247</v>
+        <v>0.01011419974638731</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02170533011753322</v>
+        <v>0.02097920609261876</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>1142013</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1132615</v>
+        <v>1132249</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1149098</v>
+        <v>1148688</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9853353900826821</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9772267243396567</v>
+        <v>0.9769109923923043</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9914487322221807</v>
+        <v>0.9910946190852651</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>699</v>
@@ -1485,19 +1485,19 @@
         <v>753452</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>745131</v>
+        <v>743459</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>758538</v>
+        <v>758751</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9852627301960356</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9743812781166526</v>
+        <v>0.972195616206784</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9919131647894857</v>
+        <v>0.9921925657681713</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1766</v>
@@ -1506,19 +1506,19 @@
         <v>1895465</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1881976</v>
+        <v>1883373</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1905136</v>
+        <v>1904274</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9853065063067814</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9782946698824666</v>
+        <v>0.9790207939073808</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9903339252448697</v>
+        <v>0.9898858002536125</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>7521</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3259</v>
+        <v>3192</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15908</v>
+        <v>15316</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01473079793069314</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00638238851072943</v>
+        <v>0.006252478986876924</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03115629394042756</v>
+        <v>0.02999551895703507</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1631,19 +1631,19 @@
         <v>12213</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6647</v>
+        <v>6842</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21215</v>
+        <v>20455</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01606443816971168</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008742925818718708</v>
+        <v>0.00899921592052706</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02790481660526252</v>
+        <v>0.02690587242650691</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -1652,19 +1652,19 @@
         <v>19734</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11622</v>
+        <v>11998</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29923</v>
+        <v>29361</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01552861118760913</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009144925847166254</v>
+        <v>0.009440877242555799</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02354545756193259</v>
+        <v>0.02310390344386052</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>503075</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>494688</v>
+        <v>495280</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>507337</v>
+        <v>507404</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9852692020693069</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9688437060595727</v>
+        <v>0.9700044810429649</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9936176114892706</v>
+        <v>0.993747521013123</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>690</v>
@@ -1702,19 +1702,19 @@
         <v>748033</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>739031</v>
+        <v>739791</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>753599</v>
+        <v>753404</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9839355618302883</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9720951833947374</v>
+        <v>0.973094127573493</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9912570741812808</v>
+        <v>0.9910007840794729</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1170</v>
@@ -1723,19 +1723,19 @@
         <v>1251109</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1240920</v>
+        <v>1241482</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1259221</v>
+        <v>1258845</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9844713888123908</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9764545424380688</v>
+        <v>0.9768960965561396</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9908550741528339</v>
+        <v>0.9905591227574445</v>
       </c>
     </row>
     <row r="18">
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5996</v>
+        <v>6945</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007307342888469314</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02246719559135911</v>
+        <v>0.026022728870279</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -1848,19 +1848,19 @@
         <v>20622</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13303</v>
+        <v>12497</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>31231</v>
+        <v>30734</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0186078730898336</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01200357852033371</v>
+        <v>0.01127603500757206</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02818109193488632</v>
+        <v>0.02773243360909849</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -1869,19 +1869,19 @@
         <v>22572</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14358</v>
+        <v>14490</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>33475</v>
+        <v>33850</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01641468470953957</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01044086932432881</v>
+        <v>0.01053722303169678</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02434295363948795</v>
+        <v>0.02461578547595948</v>
       </c>
     </row>
     <row r="20">
@@ -1898,7 +1898,7 @@
         <v>264932</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>260886</v>
+        <v>259937</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>266882</v>
@@ -1907,7 +1907,7 @@
         <v>0.9926926571115307</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.977532804408641</v>
+        <v>0.9739772711297211</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1919,19 +1919,19 @@
         <v>1087621</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1077012</v>
+        <v>1077509</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1094940</v>
+        <v>1095746</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9813921269101664</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9718189080651136</v>
+        <v>0.9722675663909015</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9879964214796663</v>
+        <v>0.988723964992428</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1286</v>
@@ -1940,19 +1940,19 @@
         <v>1352553</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1341650</v>
+        <v>1341275</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1360767</v>
+        <v>1360635</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9835853152904604</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9756570463605121</v>
+        <v>0.9753842145240403</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.989559130675671</v>
+        <v>0.9894627769683031</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>40966</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>29259</v>
+        <v>29708</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>55178</v>
+        <v>56541</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01197177793345746</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008550352944747578</v>
+        <v>0.008681680242425029</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01612484557438306</v>
+        <v>0.01652336126631946</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>51</v>
@@ -2065,19 +2065,19 @@
         <v>53002</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40861</v>
+        <v>38382</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>68544</v>
+        <v>69023</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01494775023496005</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01152386024407042</v>
+        <v>0.0108247073354801</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01933113568160057</v>
+        <v>0.01946608727170802</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>89</v>
@@ -2086,19 +2086,19 @@
         <v>93968</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>73202</v>
+        <v>75216</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>114258</v>
+        <v>115763</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01348622262847309</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01050585233307031</v>
+        <v>0.01079485751984851</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01639816942583678</v>
+        <v>0.01661418637283122</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>3380944</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3366732</v>
+        <v>3365369</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3392651</v>
+        <v>3392202</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9880282220665425</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9838751544256169</v>
+        <v>0.9834766387336805</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9914496470552523</v>
+        <v>0.9913183197575749</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3236</v>
@@ -2136,19 +2136,19 @@
         <v>3492804</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3477262</v>
+        <v>3476783</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3504945</v>
+        <v>3507424</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9850522497650399</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9806688643183994</v>
+        <v>0.9805339127282919</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9884761397559295</v>
+        <v>0.9891752926645199</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6403</v>
@@ -2157,19 +2157,19 @@
         <v>6873748</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6853458</v>
+        <v>6851953</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6894514</v>
+        <v>6892500</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9865137773715269</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9836018305741633</v>
+        <v>0.9833858136271688</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9894941476669297</v>
+        <v>0.9892051424801515</v>
       </c>
     </row>
     <row r="24">
@@ -2503,19 +2503,19 @@
         <v>10971</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5800</v>
+        <v>5194</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20552</v>
+        <v>18718</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02556681907318083</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01351749934068018</v>
+        <v>0.01210550245926574</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04789661745902773</v>
+        <v>0.04362158882735651</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7560</v>
+        <v>7552</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006191746656454924</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02178228441745702</v>
+        <v>0.02176114471944561</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -2545,19 +2545,19 @@
         <v>13119</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6812</v>
+        <v>7065</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22550</v>
+        <v>22312</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01690323515679922</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008776697464351684</v>
+        <v>0.009103070195666951</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02905316962764347</v>
+        <v>0.02874749201091432</v>
       </c>
     </row>
     <row r="5">
@@ -2574,19 +2574,19 @@
         <v>418121</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>408540</v>
+        <v>410374</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>423292</v>
+        <v>423898</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9744331809268192</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9521033825409722</v>
+        <v>0.9563784111726434</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9864825006593197</v>
+        <v>0.9878944975407343</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>330</v>
@@ -2595,7 +2595,7 @@
         <v>344906</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>339495</v>
+        <v>339503</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>347055</v>
@@ -2604,7 +2604,7 @@
         <v>0.9938082533435451</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.978217715582543</v>
+        <v>0.9782388552805543</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2616,19 +2616,19 @@
         <v>763028</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>753597</v>
+        <v>753835</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>769335</v>
+        <v>769082</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9830967648432007</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9709468303723566</v>
+        <v>0.9712525079890859</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9912233025356485</v>
+        <v>0.9908969298043331</v>
       </c>
     </row>
     <row r="6">
@@ -2720,19 +2720,19 @@
         <v>2771</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8220</v>
+        <v>7796</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007345621738884377</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002019638408827646</v>
+        <v>0.002013798389484997</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02179055156700675</v>
+        <v>0.02066633465241723</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6758</v>
+        <v>6834</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005200619349340413</v>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01815208768551953</v>
+        <v>0.0183581648477297</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -2762,19 +2762,19 @@
         <v>4707</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1682</v>
+        <v>1766</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10390</v>
+        <v>11085</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006280209104201068</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002244142447752891</v>
+        <v>0.002356103409263656</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01386239026147614</v>
+        <v>0.01478940334064614</v>
       </c>
     </row>
     <row r="8">
@@ -2791,19 +2791,19 @@
         <v>374456</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>369007</v>
+        <v>369431</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>376465</v>
+        <v>376467</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9926543782611156</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9782094484329933</v>
+        <v>0.9793336653475825</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9979803615911723</v>
+        <v>0.997986201610515</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>350</v>
@@ -2812,7 +2812,7 @@
         <v>370337</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>365515</v>
+        <v>365439</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>372273</v>
@@ -2821,7 +2821,7 @@
         <v>0.9947993806506595</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9818479123144804</v>
+        <v>0.9816418351522703</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -2833,19 +2833,19 @@
         <v>744793</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>739110</v>
+        <v>738415</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>747818</v>
+        <v>747734</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.993719790895799</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9861376097385238</v>
+        <v>0.9852105966593538</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9977558575522472</v>
+        <v>0.9976438965907364</v>
       </c>
     </row>
     <row r="9">
@@ -2937,19 +2937,19 @@
         <v>4943</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1912</v>
+        <v>1873</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10881</v>
+        <v>10912</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009471731228407148</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003663130056042807</v>
+        <v>0.00358840974874293</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02084746482723973</v>
+        <v>0.02090826481313721</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7736</v>
+        <v>7939</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01380483775658107</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04656600449089451</v>
+        <v>0.04778791199042803</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -2979,19 +2979,19 @@
         <v>7237</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3085</v>
+        <v>3078</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14856</v>
+        <v>14085</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01051793708003403</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004483171888981438</v>
+        <v>0.004473815080434563</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02159199295708258</v>
+        <v>0.02047128244074661</v>
       </c>
     </row>
     <row r="11">
@@ -3008,19 +3008,19 @@
         <v>516971</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>511033</v>
+        <v>511002</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>520002</v>
+        <v>520041</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9905282687715928</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9791525351727596</v>
+        <v>0.9790917351868631</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9963368699439572</v>
+        <v>0.9964115902512571</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>151</v>
@@ -3029,7 +3029,7 @@
         <v>163830</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>158387</v>
+        <v>158184</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>166123</v>
@@ -3038,7 +3038,7 @@
         <v>0.986195162243419</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9534339955091051</v>
+        <v>0.9522120880095721</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3050,19 +3050,19 @@
         <v>680799</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>673180</v>
+        <v>673951</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>684951</v>
+        <v>684958</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.989482062919966</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9784080070429172</v>
+        <v>0.9795287175592534</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9955168281110185</v>
+        <v>0.9955261849195655</v>
       </c>
     </row>
     <row r="12">
@@ -3154,19 +3154,19 @@
         <v>11408</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6166</v>
+        <v>6116</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19746</v>
+        <v>20102</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009923325173865929</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005363493803155246</v>
+        <v>0.005319646549409535</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01717625166910738</v>
+        <v>0.01748552742902395</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -3175,19 +3175,19 @@
         <v>7555</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3274</v>
+        <v>3376</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15021</v>
+        <v>16046</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.009147563591800616</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003963799238215804</v>
+        <v>0.004087199099993368</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01818791095770018</v>
+        <v>0.01942891178365676</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -3196,19 +3196,19 @@
         <v>18963</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11842</v>
+        <v>11441</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30263</v>
+        <v>29225</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.00959901327927312</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005994498023021697</v>
+        <v>0.005791283222507718</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01531894669656624</v>
+        <v>0.01479347823615129</v>
       </c>
     </row>
     <row r="14">
@@ -3225,19 +3225,19 @@
         <v>1138230</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1129892</v>
+        <v>1129536</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1143472</v>
+        <v>1143522</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.990076674826134</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9828237483308926</v>
+        <v>0.9825144725709762</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9946365061968447</v>
+        <v>0.9946803534505905</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>791</v>
@@ -3246,19 +3246,19 @@
         <v>818321</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>810855</v>
+        <v>809830</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>822602</v>
+        <v>822500</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9908524364081994</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9818120890422998</v>
+        <v>0.9805710882163432</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9960362007617841</v>
+        <v>0.9959128009000067</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1883</v>
@@ -3267,19 +3267,19 @@
         <v>1956551</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1945251</v>
+        <v>1946289</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1963672</v>
+        <v>1964073</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9904009867207269</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.984681053303434</v>
+        <v>0.9852065217638486</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9940055019769783</v>
+        <v>0.9942087167774922</v>
       </c>
     </row>
     <row r="15">
@@ -3371,19 +3371,19 @@
         <v>14430</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8432</v>
+        <v>8030</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23176</v>
+        <v>22994</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02324840314394105</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01358494422985599</v>
+        <v>0.01293765305594413</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03733820015034812</v>
+        <v>0.03704556864476566</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -3392,19 +3392,19 @@
         <v>14041</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7936</v>
+        <v>7076</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23768</v>
+        <v>24315</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01901893164253024</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01075033697223369</v>
+        <v>0.009585369041494089</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03219525315532204</v>
+        <v>0.03293663987330804</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -3413,19 +3413,19 @@
         <v>28471</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18189</v>
+        <v>18891</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>40496</v>
+        <v>39943</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02095075975500325</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01338425672412629</v>
+        <v>0.0139011328802161</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02979973409240535</v>
+        <v>0.02939221770096715</v>
       </c>
     </row>
     <row r="17">
@@ -3442,19 +3442,19 @@
         <v>606276</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>597530</v>
+        <v>597712</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>612274</v>
+        <v>612676</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9767515968560589</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9626617998496516</v>
+        <v>0.962954431355234</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.986415055770144</v>
+        <v>0.9870623469440557</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>687</v>
@@ -3463,19 +3463,19 @@
         <v>724203</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>714476</v>
+        <v>713929</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>730308</v>
+        <v>731168</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9809810683574698</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9678047468446778</v>
+        <v>0.9670633601266916</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9892496630277663</v>
+        <v>0.9904146309585059</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1269</v>
@@ -3484,19 +3484,19 @@
         <v>1330479</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1318454</v>
+        <v>1319007</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1340761</v>
+        <v>1340059</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9790492402449967</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9702002659075945</v>
+        <v>0.9706077822990329</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9866157432758734</v>
+        <v>0.986098867119784</v>
       </c>
     </row>
     <row r="18">
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4764</v>
+        <v>4771</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003302066889124267</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01658920282970769</v>
+        <v>0.01661650301604808</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>26</v>
@@ -3609,19 +3609,19 @@
         <v>28852</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18806</v>
+        <v>19340</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>42473</v>
+        <v>42187</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02666524899339298</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01737998846225477</v>
+        <v>0.01787411743478388</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03925368682039547</v>
+        <v>0.03898938047994902</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>27</v>
@@ -3630,19 +3630,19 @@
         <v>29801</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>19889</v>
+        <v>19167</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>42152</v>
+        <v>42440</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02176547440596794</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01452617064927066</v>
+        <v>0.01399902190597233</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03078665002712096</v>
+        <v>0.03099718281502934</v>
       </c>
     </row>
     <row r="20">
@@ -3659,7 +3659,7 @@
         <v>286197</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>282381</v>
+        <v>282374</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>287145</v>
@@ -3668,7 +3668,7 @@
         <v>0.9966979331108757</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9834107971702923</v>
+        <v>0.9833834969839519</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3680,19 +3680,19 @@
         <v>1053173</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1039552</v>
+        <v>1039838</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1063219</v>
+        <v>1062685</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.973334751006607</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9607463131796046</v>
+        <v>0.961010619520051</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9826200115377453</v>
+        <v>0.982125882565216</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1237</v>
@@ -3701,19 +3701,19 @@
         <v>1339369</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1327018</v>
+        <v>1326730</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1349281</v>
+        <v>1350003</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.978234525594032</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.969213349972879</v>
+        <v>0.9690028171849707</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9854738293507292</v>
+        <v>0.9860009780940278</v>
       </c>
     </row>
     <row r="21">
@@ -3805,19 +3805,19 @@
         <v>45472</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>34290</v>
+        <v>33808</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>59765</v>
+        <v>59598</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01343044119621576</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01012795239316693</v>
+        <v>0.00998555361201557</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01765220108379574</v>
+        <v>0.01760267170977539</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>51</v>
@@ -3826,19 +3826,19 @@
         <v>56826</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>42217</v>
+        <v>42487</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>73396</v>
+        <v>73612</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0160907576415929</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01195401148387106</v>
+        <v>0.01203051711429259</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02078274599732895</v>
+        <v>0.02084388402367183</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>96</v>
@@ -3847,19 +3847,19 @@
         <v>102298</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>83735</v>
+        <v>82032</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>124622</v>
+        <v>123265</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01478865004473316</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01210507051123169</v>
+        <v>0.01185886357345064</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01801595539200685</v>
+        <v>0.01781975444283972</v>
       </c>
     </row>
     <row r="23">
@@ -3876,19 +3876,19 @@
         <v>3340250</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3325957</v>
+        <v>3326124</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3351432</v>
+        <v>3351914</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9865695588037843</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9823477989162043</v>
+        <v>0.9823973282902245</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9898720476068331</v>
+        <v>0.9900144463879844</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3275</v>
@@ -3897,19 +3897,19 @@
         <v>3474770</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3458200</v>
+        <v>3457984</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3489379</v>
+        <v>3489109</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9839092423584072</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9792172540026706</v>
+        <v>0.979156115976328</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9880459885161288</v>
+        <v>0.9879694828857074</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6454</v>
@@ -3918,19 +3918,19 @@
         <v>6815020</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6792696</v>
+        <v>6794053</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6833583</v>
+        <v>6835286</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9852113499552668</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9819840446079932</v>
+        <v>0.9821802455571602</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9878949294887683</v>
+        <v>0.9881411364265494</v>
       </c>
     </row>
     <row r="24">
